--- a/examples_FS.xlsx
+++ b/examples_FS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="796">
   <si>
     <t>Animal</t>
   </si>
@@ -22,31 +22,13 @@
     <t>/m/0jbk</t>
   </si>
   <si>
-    <t>Animal &gt; Domestic animals, pets</t>
-  </si>
-  <si>
-    <t>/m/068hy</t>
-  </si>
-  <si>
     <t>Animal &gt; Domestic animals, pets &gt; Cat</t>
   </si>
   <si>
     <t>/m/01yrx</t>
   </si>
   <si>
-    <t>Animal &gt; Domestic animals, pets &gt; Cat &gt; Cat communication</t>
-  </si>
-  <si>
-    <t>/m/0f25s6</t>
-  </si>
-  <si>
-    <t>Animal &gt; Domestic animals, pets &gt; Cat &gt; Caterwaul</t>
-  </si>
-  <si>
-    <t>/m/07r81j2</t>
-  </si>
-  <si>
-    <t>Animal &gt; Domestic animals, pets &gt; Cat &gt; Hiss</t>
+    <t>Animal &gt; Domestic animals, pets &gt; Cat &gt; Hiss  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07rjwbb</t>
@@ -76,55 +58,25 @@
     <t>/m/05tny_</t>
   </si>
   <si>
-    <t>Animal &gt; Domestic animals, pets &gt; Dog &gt; Bay</t>
-  </si>
-  <si>
-    <t>/m/07srf8z</t>
-  </si>
-  <si>
-    <t>Animal &gt; Domestic animals, pets &gt; Dog &gt; Bow-wow</t>
-  </si>
-  <si>
-    <t>/m/07rc7d9</t>
-  </si>
-  <si>
-    <t>Animal &gt; Domestic animals, pets &gt; Dog &gt; Growling</t>
+    <t>Animal &gt; Domestic animals, pets &gt; Dog &gt; Growling  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/0ghcn6</t>
   </si>
   <si>
-    <t>Animal &gt; Domestic animals, pets &gt; Dog &gt; Howl</t>
+    <t>Animal &gt; Domestic animals, pets &gt; Dog &gt; Howl  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07qf0zm</t>
   </si>
   <si>
-    <t>Animal &gt; Domestic animals, pets &gt; Dog &gt; Whimper (dog)</t>
-  </si>
-  <si>
-    <t>/t/dd00136</t>
-  </si>
-  <si>
-    <t>Animal &gt; Domestic animals, pets &gt; Dog &gt; Yip</t>
-  </si>
-  <si>
-    <t>/m/07r_k2n</t>
-  </si>
-  <si>
-    <t>Animal &gt; Livestock, farm animals, working animals</t>
-  </si>
-  <si>
-    <t>/m/0ch8v</t>
-  </si>
-  <si>
     <t>Animal &gt; Livestock, farm animals, working animals &gt; Cattle, bovinae</t>
   </si>
   <si>
     <t>/m/01xq0k1</t>
   </si>
   <si>
-    <t>Animal &gt; Livestock, farm animals, working animals &gt; Cattle, bovinae &gt; Cowbell</t>
+    <t>Animal &gt; Livestock, farm animals, working animals &gt; Cattle, bovinae &gt; Cowbell  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/0239kh</t>
@@ -136,24 +88,6 @@
     <t>/m/07rpkh9</t>
   </si>
   <si>
-    <t>Animal &gt; Livestock, farm animals, working animals &gt; Cattle, bovinae &gt; Yak</t>
-  </si>
-  <si>
-    <t>/m/01hhp3</t>
-  </si>
-  <si>
-    <t>Animal &gt; Livestock, farm animals, working animals &gt; Donkey, ass</t>
-  </si>
-  <si>
-    <t>/m/0ffhf</t>
-  </si>
-  <si>
-    <t>Animal &gt; Livestock, farm animals, working animals &gt; Fowl</t>
-  </si>
-  <si>
-    <t>/m/025rv6n</t>
-  </si>
-  <si>
     <t>Animal &gt; Livestock, farm animals, working animals &gt; Fowl &gt; Chicken, rooster</t>
   </si>
   <si>
@@ -178,43 +112,19 @@
     <t>/m/09ddx</t>
   </si>
   <si>
-    <t>Animal &gt; Livestock, farm animals, working animals &gt; Fowl &gt; Duck &gt; Quack</t>
-  </si>
-  <si>
-    <t>/m/07qdb04</t>
-  </si>
-  <si>
     <t>Animal &gt; Livestock, farm animals, working animals &gt; Fowl &gt; Goose</t>
   </si>
   <si>
     <t>/m/0dbvp</t>
   </si>
   <si>
-    <t>Animal &gt; Livestock, farm animals, working animals &gt; Fowl &gt; Goose &gt; Honk</t>
-  </si>
-  <si>
-    <t>/m/07qwf61</t>
-  </si>
-  <si>
-    <t>Animal &gt; Livestock, farm animals, working animals &gt; Fowl &gt; Turkey</t>
-  </si>
-  <si>
-    <t>/m/01rd7k</t>
-  </si>
-  <si>
-    <t>Animal &gt; Livestock, farm animals, working animals &gt; Fowl &gt; Turkey &gt; Gobble</t>
-  </si>
-  <si>
-    <t>/m/07svc2k</t>
-  </si>
-  <si>
     <t>Animal &gt; Livestock, farm animals, working animals &gt; Goat</t>
   </si>
   <si>
     <t>/m/03fwl</t>
   </si>
   <si>
-    <t>Animal &gt; Livestock, farm animals, working animals &gt; Goat &gt; Bleat</t>
+    <t>Animal &gt; Livestock, farm animals, working animals &gt; Goat &gt; Bleat  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07q0h5t</t>
@@ -226,30 +136,12 @@
     <t>/m/03k3r</t>
   </si>
   <si>
-    <t>Animal &gt; Livestock, farm animals, working animals &gt; Horse &gt; Clip-clop</t>
+    <t>Animal &gt; Livestock, farm animals, working animals &gt; Horse &gt; Clip-clop  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07rv9rh</t>
   </si>
   <si>
-    <t>Animal &gt; Livestock, farm animals, working animals &gt; Horse &gt; Neigh, whinny</t>
-  </si>
-  <si>
-    <t>/m/07q5rw0</t>
-  </si>
-  <si>
-    <t>Animal &gt; Livestock, farm animals, working animals &gt; Horse &gt; Nicker</t>
-  </si>
-  <si>
-    <t>/t/dd00140</t>
-  </si>
-  <si>
-    <t>Animal &gt; Livestock, farm animals, working animals &gt; Horse &gt; Snort (horse)</t>
-  </si>
-  <si>
-    <t>/t/dd00139</t>
-  </si>
-  <si>
     <t>Animal &gt; Livestock, farm animals, working animals &gt; Pig</t>
   </si>
   <si>
@@ -268,12 +160,6 @@
     <t>/m/07bgp</t>
   </si>
   <si>
-    <t>Animal &gt; Wild animals</t>
-  </si>
-  <si>
-    <t>/m/01280g</t>
-  </si>
-  <si>
     <t>Animal &gt; Wild animals &gt; Bird</t>
   </si>
   <si>
@@ -292,30 +178,18 @@
     <t>/m/020bb7</t>
   </si>
   <si>
-    <t>Animal &gt; Wild animals &gt; Bird &gt; Bird vocalization, bird call, bird song &gt; Chirp, tweet</t>
+    <t>Animal &gt; Wild animals &gt; Bird &gt; Bird vocalization, bird call, bird song &gt; Chirp, tweet  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07pggtn</t>
   </si>
   <si>
-    <t>Animal &gt; Wild animals &gt; Bird &gt; Bird vocalization, bird call, bird song &gt; Squawk</t>
-  </si>
-  <si>
-    <t>/m/07sx8x_</t>
-  </si>
-  <si>
     <t>Animal &gt; Wild animals &gt; Bird &gt; Crow</t>
   </si>
   <si>
     <t>/m/04s8yn</t>
   </si>
   <si>
-    <t>Animal &gt; Wild animals &gt; Bird &gt; Crow &gt; Caw</t>
-  </si>
-  <si>
-    <t>/m/07r5c2p</t>
-  </si>
-  <si>
     <t>Animal &gt; Wild animals &gt; Bird &gt; Gull, seagull</t>
   </si>
   <si>
@@ -340,12 +214,6 @@
     <t>/m/0h0rv</t>
   </si>
   <si>
-    <t>Animal &gt; Wild animals &gt; Bird &gt; Pigeon, dove &gt; Coo</t>
-  </si>
-  <si>
-    <t>/m/07r_25d</t>
-  </si>
-  <si>
     <t>Animal &gt; Wild animals &gt; Canidae, dogs, wolves</t>
   </si>
   <si>
@@ -388,7 +256,7 @@
     <t>/m/0h2mp</t>
   </si>
   <si>
-    <t>Animal &gt; Wild animals &gt; Insect &gt; Fly, housefly &gt; Buzz</t>
+    <t>Animal &gt; Wild animals &gt; Insect &gt; Fly, housefly &gt; Buzz  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07pjwq1</t>
@@ -400,12 +268,6 @@
     <t>/m/09f96</t>
   </si>
   <si>
-    <t>Animal &gt; Wild animals &gt; Roaring cats (lions, tigers)</t>
-  </si>
-  <si>
-    <t>/m/0cdnk</t>
-  </si>
-  <si>
     <t>Animal &gt; Wild animals &gt; Roaring cats (lions, tigers) &gt; Roar</t>
   </si>
   <si>
@@ -418,54 +280,12 @@
     <t>/m/06hps</t>
   </si>
   <si>
-    <t>Animal &gt; Wild animals &gt; Rodents, rats, mice &gt; Chipmunk</t>
-  </si>
-  <si>
-    <t>/m/02021</t>
-  </si>
-  <si>
-    <t>Animal &gt; Wild animals &gt; Rodents, rats, mice &gt; Mouse</t>
-  </si>
-  <si>
-    <t>/m/04rmv</t>
-  </si>
-  <si>
-    <t>Animal &gt; Wild animals &gt; Rodents, rats, mice &gt; Patter</t>
-  </si>
-  <si>
-    <t>/m/07r4gkf</t>
-  </si>
-  <si>
-    <t>Animal &gt; Wild animals &gt; Snake</t>
-  </si>
-  <si>
-    <t>/m/078jl</t>
-  </si>
-  <si>
-    <t>Animal &gt; Wild animals &gt; Snake &gt; Rattle</t>
+    <t>Animal &gt; Wild animals &gt; Snake &gt; Rattle  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07qn4z3</t>
   </si>
   <si>
-    <t>Animal &gt; Wild animals &gt; Whale vocalization</t>
-  </si>
-  <si>
-    <t>/m/032n05</t>
-  </si>
-  <si>
-    <t>Channel, environment and background</t>
-  </si>
-  <si>
-    <t>/t/dd00123</t>
-  </si>
-  <si>
-    <t>Channel, environment and background &gt; Acoustic environment</t>
-  </si>
-  <si>
-    <t>/t/dd00093</t>
-  </si>
-  <si>
     <t>Channel, environment and background &gt; Acoustic environment &gt; Echo</t>
   </si>
   <si>
@@ -484,12 +304,6 @@
     <t>/t/dd00127</t>
   </si>
   <si>
-    <t>Channel, environment and background &gt; Acoustic environment &gt; Inside, small room</t>
-  </si>
-  <si>
-    <t>/t/dd00125</t>
-  </si>
-  <si>
     <t>Channel, environment and background &gt; Acoustic environment &gt; Outside, rural or natural</t>
   </si>
   <si>
@@ -526,24 +340,12 @@
     <t>/m/0g12c5</t>
   </si>
   <si>
-    <t>Channel, environment and background &gt; Noise &gt; Background noise &gt; Environmental noise</t>
-  </si>
-  <si>
-    <t>/m/06_y0by</t>
-  </si>
-  <si>
     <t>Channel, environment and background &gt; Noise &gt; Background noise &gt; Mains hum</t>
   </si>
   <si>
     <t>/m/06xkwv</t>
   </si>
   <si>
-    <t>Channel, environment and background &gt; Noise &gt; Background noise &gt; Sidetone</t>
-  </si>
-  <si>
-    <t>/m/08p9q4</t>
-  </si>
-  <si>
     <t>Channel, environment and background &gt; Noise &gt; Background noise &gt; Static</t>
   </si>
   <si>
@@ -556,24 +358,12 @@
     <t>/m/09d1b1</t>
   </si>
   <si>
-    <t>Channel, environment and background &gt; Noise &gt; Cacophony</t>
-  </si>
-  <si>
-    <t>/m/07szfh9</t>
-  </si>
-  <si>
     <t>Channel, environment and background &gt; Noise &gt; Pink noise</t>
   </si>
   <si>
     <t>/m/0cj0r</t>
   </si>
   <si>
-    <t>Channel, environment and background &gt; Noise &gt; Throbbing</t>
-  </si>
-  <si>
-    <t>/m/07p_0gm</t>
-  </si>
-  <si>
     <t>Channel, environment and background &gt; Noise &gt; Vibration</t>
   </si>
   <si>
@@ -586,42 +376,18 @@
     <t>/m/0chx_</t>
   </si>
   <si>
-    <t>Channel, environment and background &gt; Sound reproduction</t>
-  </si>
-  <si>
-    <t>/m/07bm98</t>
-  </si>
-  <si>
-    <t>Channel, environment and background &gt; Sound reproduction &gt; Compact disc</t>
-  </si>
-  <si>
-    <t>/m/01www</t>
-  </si>
-  <si>
     <t>Channel, environment and background &gt; Sound reproduction &gt; Gramophone record</t>
   </si>
   <si>
     <t>/m/0174nj</t>
   </si>
   <si>
-    <t>Channel, environment and background &gt; Sound reproduction &gt; Headphones</t>
-  </si>
-  <si>
-    <t>/m/01b7fy</t>
-  </si>
-  <si>
     <t>Channel, environment and background &gt; Sound reproduction &gt; Loudspeaker</t>
   </si>
   <si>
     <t>/m/0cfpc</t>
   </si>
   <si>
-    <t>Channel, environment and background &gt; Sound reproduction &gt; MP3</t>
-  </si>
-  <si>
-    <t>/m/04zc0</t>
-  </si>
-  <si>
     <t>Channel, environment and background &gt; Sound reproduction &gt; Radio</t>
   </si>
   <si>
@@ -640,30 +406,12 @@
     <t>/m/07hvw1</t>
   </si>
   <si>
-    <t>Channel, environment and background &gt; Sound reproduction &gt; Television</t>
-  </si>
-  <si>
-    <t>/m/07c52</t>
-  </si>
-  <si>
     <t>Human sounds</t>
   </si>
   <si>
     <t>/m/0dgw9r</t>
   </si>
   <si>
-    <t>Human sounds &gt; Digestive</t>
-  </si>
-  <si>
-    <t>/m/0160x5</t>
-  </si>
-  <si>
-    <t>Human sounds &gt; Digestive &gt; Biting</t>
-  </si>
-  <si>
-    <t>/m/07pdhp0</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Digestive &gt; Burping, eructation</t>
   </si>
   <si>
@@ -688,12 +436,6 @@
     <t>/m/0939n_</t>
   </si>
   <si>
-    <t>Human sounds &gt; Digestive &gt; Hiccup</t>
-  </si>
-  <si>
-    <t>/m/02p3nc</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Digestive &gt; Stomach rumble</t>
   </si>
   <si>
@@ -706,7 +448,7 @@
     <t>/m/0k65p</t>
   </si>
   <si>
-    <t>Human sounds &gt; Hands &gt; Clapping</t>
+    <t>Human sounds &gt; Hands &gt; Clapping  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/0l15bq</t>
@@ -724,30 +466,12 @@
     <t>/m/01jg02</t>
   </si>
   <si>
-    <t>Human sounds &gt; Heart sounds, heartbeat &gt; Heart murmur</t>
-  </si>
-  <si>
-    <t>/m/01jg1z</t>
-  </si>
-  <si>
-    <t>Human sounds &gt; Human group actions</t>
-  </si>
-  <si>
-    <t>/t/dd00012</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Human group actions &gt; Applause</t>
   </si>
   <si>
     <t>/m/028ght</t>
   </si>
   <si>
-    <t>Human sounds &gt; Human group actions &gt; Booing</t>
-  </si>
-  <si>
-    <t>/m/04v5dt</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Human group actions &gt; Chatter</t>
   </si>
   <si>
@@ -772,30 +496,12 @@
     <t>/m/03qtwd</t>
   </si>
   <si>
-    <t>Human sounds &gt; Human group actions &gt; Hubbub, speech noise, speech babble</t>
-  </si>
-  <si>
-    <t>/m/07qfr4h</t>
-  </si>
-  <si>
-    <t>Human sounds &gt; Human locomotion</t>
-  </si>
-  <si>
-    <t>/m/0bpl036</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Human locomotion &gt; Run</t>
   </si>
   <si>
     <t>/m/06h7j</t>
   </si>
   <si>
-    <t>Human sounds &gt; Human locomotion &gt; Shuffle</t>
-  </si>
-  <si>
-    <t>/m/07qv_x_</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Human locomotion &gt; Walk, footsteps</t>
   </si>
   <si>
@@ -820,30 +526,12 @@
     <t>/t/dd00002</t>
   </si>
   <si>
-    <t>Human sounds &gt; Human voice &gt; Crying, sobbing &gt; Whimper</t>
-  </si>
-  <si>
-    <t>/m/07qz6j3</t>
-  </si>
-  <si>
-    <t>Human sounds &gt; Human voice &gt; Groan</t>
-  </si>
-  <si>
-    <t>/m/07s2xch</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Human voice &gt; Grunt</t>
   </si>
   <si>
     <t>/m/07r4k75</t>
   </si>
   <si>
-    <t>Human sounds &gt; Human voice &gt; Humming</t>
-  </si>
-  <si>
-    <t>/m/02fxyj</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Human voice &gt; Laughter</t>
   </si>
   <si>
@@ -856,12 +544,6 @@
     <t>/t/dd00001</t>
   </si>
   <si>
-    <t>Human sounds &gt; Human voice &gt; Laughter &gt; Belly laugh</t>
-  </si>
-  <si>
-    <t>/m/07sq110</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Human voice &gt; Laughter &gt; Chuckle, chortle</t>
   </si>
   <si>
@@ -874,12 +556,6 @@
     <t>/m/07r660_</t>
   </si>
   <si>
-    <t>Human sounds &gt; Human voice &gt; Laughter &gt; Snicker</t>
-  </si>
-  <si>
-    <t>/m/07s04w4</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Human voice &gt; Screaming</t>
   </si>
   <si>
@@ -892,30 +568,12 @@
     <t>/m/07p6fty</t>
   </si>
   <si>
-    <t>Human sounds &gt; Human voice &gt; Shout &gt; Battle cry</t>
-  </si>
-  <si>
-    <t>/m/04gy_2</t>
-  </si>
-  <si>
-    <t>Human sounds &gt; Human voice &gt; Shout &gt; Bellow</t>
-  </si>
-  <si>
-    <t>/m/07q4ntr</t>
-  </si>
-  <si>
-    <t>Human sounds &gt; Human voice &gt; Shout &gt; Children shouting</t>
+    <t>Human sounds &gt; Human voice &gt; Shout &gt; Children shouting  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/t/dd00135</t>
   </si>
   <si>
-    <t>Human sounds &gt; Human voice &gt; Shout &gt; Whoop</t>
-  </si>
-  <si>
-    <t>/m/07rwj3x</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Human voice &gt; Shout &gt; Yell</t>
   </si>
   <si>
@@ -934,25 +592,19 @@
     <t>/m/015lz1</t>
   </si>
   <si>
-    <t>Human sounds &gt; Human voice &gt; Singing &gt; Chant</t>
+    <t>Human sounds &gt; Human voice &gt; Singing &gt; Chant  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/02bk07</t>
   </si>
   <si>
-    <t>Human sounds &gt; Human voice &gt; Singing &gt; Chant &gt; Mantra</t>
-  </si>
-  <si>
-    <t>/m/01c194</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Human voice &gt; Singing &gt; Child singing</t>
   </si>
   <si>
     <t>/t/dd00005</t>
   </si>
   <si>
-    <t>Human sounds &gt; Human voice &gt; Singing &gt; Choir</t>
+    <t>Human sounds &gt; Human voice &gt; Singing &gt; Choir  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/0l14jd</t>
@@ -982,12 +634,6 @@
     <t>/t/dd00006</t>
   </si>
   <si>
-    <t>Human sounds &gt; Human voice &gt; Singing &gt; Yodeling</t>
-  </si>
-  <si>
-    <t>/m/01swy6</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Human voice &gt; Speech</t>
   </si>
   <si>
@@ -1024,12 +670,6 @@
     <t>/m/05zppz</t>
   </si>
   <si>
-    <t>Human sounds &gt; Human voice &gt; Speech &gt; Narration, monologue</t>
-  </si>
-  <si>
-    <t>/m/02qldy</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Human voice &gt; Speech &gt; Speech synthesizer</t>
   </si>
   <si>
@@ -1054,24 +694,6 @@
     <t>/m/01j423</t>
   </si>
   <si>
-    <t>Human sounds &gt; Otoacoustic emission</t>
-  </si>
-  <si>
-    <t>/m/04xp5v</t>
-  </si>
-  <si>
-    <t>Human sounds &gt; Otoacoustic emission &gt; Tinnitus, ringing in the ears</t>
-  </si>
-  <si>
-    <t>/m/0pv6y</t>
-  </si>
-  <si>
-    <t>Human sounds &gt; Respiratory sounds</t>
-  </si>
-  <si>
-    <t>/m/09hlz4</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Respiratory sounds &gt; Breathing</t>
   </si>
   <si>
@@ -1084,30 +706,12 @@
     <t>/m/07s0dtb</t>
   </si>
   <si>
-    <t>Human sounds &gt; Respiratory sounds &gt; Breathing &gt; Pant</t>
-  </si>
-  <si>
-    <t>/m/07pyy8b</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Respiratory sounds &gt; Breathing &gt; Snoring</t>
   </si>
   <si>
     <t>/m/01d3sd</t>
   </si>
   <si>
-    <t>Human sounds &gt; Respiratory sounds &gt; Breathing &gt; Snort</t>
-  </si>
-  <si>
-    <t>/m/07q0yl5</t>
-  </si>
-  <si>
-    <t>Human sounds &gt; Respiratory sounds &gt; Breathing &gt; Wheeze</t>
-  </si>
-  <si>
-    <t>/m/07mzm6</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Respiratory sounds &gt; Cough</t>
   </si>
   <si>
@@ -1132,426 +736,6 @@
     <t>/m/07ppn3j</t>
   </si>
   <si>
-    <t>Human sounds &gt; Whistling</t>
-  </si>
-  <si>
-    <t>/m/01w250</t>
-  </si>
-  <si>
-    <t>Human sounds &gt; Whistling &gt; Wolf-whistling</t>
-  </si>
-  <si>
-    <t>/m/079vc8</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>/m/04rlf</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre</t>
-  </si>
-  <si>
-    <t>/m/0kpv1t</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Blues</t>
-  </si>
-  <si>
-    <t>/m/0155w</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Christian music</t>
-  </si>
-  <si>
-    <t>/m/02mscn</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Christian music &gt; Gospel music</t>
-  </si>
-  <si>
-    <t>/m/016cjb</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Classical music</t>
-  </si>
-  <si>
-    <t>/m/0ggq0m</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Classical music &gt; Opera</t>
-  </si>
-  <si>
-    <t>/m/05lls</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Country</t>
-  </si>
-  <si>
-    <t>/m/01lyv</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Country &gt; Bluegrass</t>
-  </si>
-  <si>
-    <t>/m/0gg8l</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Country &gt; Swing music</t>
-  </si>
-  <si>
-    <t>/m/015y_n</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Disco</t>
-  </si>
-  <si>
-    <t>/m/026z9</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Electronic music</t>
-  </si>
-  <si>
-    <t>/m/02lkt</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Electronic music &gt; Ambient music</t>
-  </si>
-  <si>
-    <t>/m/0fd3y</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Electronic music &gt; Ambient music &gt; Drone music</t>
-  </si>
-  <si>
-    <t>/m/052smk</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Electronic music &gt; Drum and bass</t>
-  </si>
-  <si>
-    <t>/m/0283d</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Electronic music &gt; Drum and bass &gt; Oldschool jungle</t>
-  </si>
-  <si>
-    <t>/m/01f9gb</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Electronic music &gt; Dubstep</t>
-  </si>
-  <si>
-    <t>/m/07s72n</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Electronic music &gt; Electro</t>
-  </si>
-  <si>
-    <t>/m/029h7y</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Electronic music &gt; Electronic dance music</t>
-  </si>
-  <si>
-    <t>/m/08cyft</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Electronic music &gt; Electronica</t>
-  </si>
-  <si>
-    <t>/m/0m0jc</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Electronic music &gt; House music</t>
-  </si>
-  <si>
-    <t>/m/03mb9</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Electronic music &gt; Noise music</t>
-  </si>
-  <si>
-    <t>/m/0m0fw</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Electronic music &gt; Techno</t>
-  </si>
-  <si>
-    <t>/m/07gxw</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Electronic music &gt; Trance music</t>
-  </si>
-  <si>
-    <t>/m/07lnk</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Electronic music &gt; UK garage</t>
-  </si>
-  <si>
-    <t>/m/0bmfpc</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Folk music</t>
-  </si>
-  <si>
-    <t>/m/02w4v</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Funk</t>
-  </si>
-  <si>
-    <t>/m/02x8m</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Hip hop music</t>
-  </si>
-  <si>
-    <t>/m/0glt670</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Hip hop music &gt; Beatboxing</t>
-  </si>
-  <si>
-    <t>/m/02cz_7</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Hip hop music &gt; Grime music</t>
-  </si>
-  <si>
-    <t>/m/04j_h4</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Hip hop music &gt; Trap music</t>
-  </si>
-  <si>
-    <t>/m/0n8zsc8</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Independent music</t>
-  </si>
-  <si>
-    <t>/m/05rwpb</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Jazz</t>
-  </si>
-  <si>
-    <t>/m/03_d0</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Middle Eastern music</t>
-  </si>
-  <si>
-    <t>/m/06j64v</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Music for children</t>
-  </si>
-  <si>
-    <t>/m/05fw6t</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Music of Africa</t>
-  </si>
-  <si>
-    <t>/m/0164x2</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Music of Africa &gt; Afrobeat</t>
-  </si>
-  <si>
-    <t>/m/0145m</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Music of Africa &gt; Kwaito</t>
-  </si>
-  <si>
-    <t>/m/022dgg</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Music of Asia</t>
-  </si>
-  <si>
-    <t>/m/028sqc</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Music of Asia &gt; Carnatic music</t>
-  </si>
-  <si>
-    <t>/m/015vgc</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Music of Asia &gt; Music of Bollywood</t>
-  </si>
-  <si>
-    <t>/m/0dq0md</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Music of Latin America</t>
-  </si>
-  <si>
-    <t>/m/0g293</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Music of Latin America &gt; Cumbia</t>
-  </si>
-  <si>
-    <t>/m/02ccj9</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Music of Latin America &gt; Flamenco</t>
-  </si>
-  <si>
-    <t>/m/0326g</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Music of Latin America &gt; Funk carioca</t>
-  </si>
-  <si>
-    <t>/m/05q7ms</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Music of Latin America &gt; Kuduro</t>
-  </si>
-  <si>
-    <t>/m/080nby</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Music of Latin America &gt; Salsa music</t>
-  </si>
-  <si>
-    <t>/m/0ln16</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Music of Latin America &gt; Soca music</t>
-  </si>
-  <si>
-    <t>/m/0kpck</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; New-age music</t>
-  </si>
-  <si>
-    <t>/m/02v2lh</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Pop music</t>
-  </si>
-  <si>
-    <t>/m/064t9</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Reggae</t>
-  </si>
-  <si>
-    <t>/m/06cqb</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Reggae &gt; Dub</t>
-  </si>
-  <si>
-    <t>/m/0190y4</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Rhythm and blues</t>
-  </si>
-  <si>
-    <t>/m/06j6l</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Rock music</t>
-  </si>
-  <si>
-    <t>/m/06by7</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Rock music &gt; Grunge</t>
-  </si>
-  <si>
-    <t>/m/0dls3</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Rock music &gt; Heavy metal</t>
-  </si>
-  <si>
-    <t>/m/03lty</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Rock music &gt; Progressive rock</t>
-  </si>
-  <si>
-    <t>/m/0dl5d</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Rock music &gt; Psychedelic rock</t>
-  </si>
-  <si>
-    <t>/m/05w3f</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Rock music &gt; Punk rock</t>
-  </si>
-  <si>
-    <t>/m/05r6t</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Rock music &gt; Rock and roll</t>
-  </si>
-  <si>
-    <t>/m/07sbbz2</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Ska</t>
-  </si>
-  <si>
-    <t>/m/06rqw</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Soul music</t>
-  </si>
-  <si>
-    <t>/m/0gywn</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Traditional music</t>
-  </si>
-  <si>
-    <t>/m/02p0sh1</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Vocal music</t>
-  </si>
-  <si>
-    <t>/m/0y4f8</t>
-  </si>
-  <si>
-    <t>Music &gt; Music genre &gt; Vocal music &gt; A capella</t>
-  </si>
-  <si>
-    <t>/m/0z9c</t>
-  </si>
-  <si>
-    <t>Music &gt; Music mood</t>
-  </si>
-  <si>
-    <t>/t/dd00030</t>
-  </si>
-  <si>
-    <t>Music &gt; Music mood &gt; Angry music</t>
-  </si>
-  <si>
-    <t>/t/dd00036</t>
-  </si>
-  <si>
-    <t>Music &gt; Music mood &gt; Exciting music</t>
-  </si>
-  <si>
-    <t>/t/dd00035</t>
-  </si>
-  <si>
     <t>Music &gt; Music mood &gt; Funny music</t>
   </si>
   <si>
@@ -1576,36 +760,6 @@
     <t>/t/dd00037</t>
   </si>
   <si>
-    <t>Music &gt; Music mood &gt; Tender music</t>
-  </si>
-  <si>
-    <t>/t/dd00034</t>
-  </si>
-  <si>
-    <t>Music &gt; Music role</t>
-  </si>
-  <si>
-    <t>/t/dd00028</t>
-  </si>
-  <si>
-    <t>Music &gt; Music role &gt; Background music</t>
-  </si>
-  <si>
-    <t>/m/025td0t</t>
-  </si>
-  <si>
-    <t>Music &gt; Music role &gt; Birthday music</t>
-  </si>
-  <si>
-    <t>/t/dd00029</t>
-  </si>
-  <si>
-    <t>Music &gt; Music role &gt; Christmas music</t>
-  </si>
-  <si>
-    <t>/m/0140xf</t>
-  </si>
-  <si>
     <t>Music &gt; Music role &gt; Dance music</t>
   </si>
   <si>
@@ -1618,12 +772,6 @@
     <t>/m/03r5q_</t>
   </si>
   <si>
-    <t>Music &gt; Music role &gt; Lullaby</t>
-  </si>
-  <si>
-    <t>/m/07pkxdp</t>
-  </si>
-  <si>
     <t>Music &gt; Music role &gt; Soundtrack music</t>
   </si>
   <si>
@@ -1636,24 +784,6 @@
     <t>/m/02cjck</t>
   </si>
   <si>
-    <t>Music &gt; Music role &gt; Video game music</t>
-  </si>
-  <si>
-    <t>/m/01z7dr</t>
-  </si>
-  <si>
-    <t>Music &gt; Music role &gt; Wedding music</t>
-  </si>
-  <si>
-    <t>/m/04wptg</t>
-  </si>
-  <si>
-    <t>Music &gt; Musical concepts</t>
-  </si>
-  <si>
-    <t>/t/dd00027</t>
-  </si>
-  <si>
     <t>Music &gt; Musical concepts &gt; Bassline</t>
   </si>
   <si>
@@ -1726,66 +856,42 @@
     <t>/m/0mkg</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Bagpipes</t>
-  </si>
-  <si>
-    <t>/m/0192l</t>
-  </si>
-  <si>
-    <t>Music &gt; Musical instrument &gt; Bass (instrument role)</t>
-  </si>
-  <si>
-    <t>/m/01vj9c</t>
-  </si>
-  <si>
-    <t>Music &gt; Musical instrument &gt; Bell</t>
+    <t>Music &gt; Musical instrument &gt; Bell  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/0395lw</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Bell &gt; Bicycle bell</t>
+    <t>Music &gt; Musical instrument &gt; Bell &gt; Bicycle bell  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/0gy1t2s</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Bell &gt; Change ringing (campanology)</t>
-  </si>
-  <si>
-    <t>/m/0150b9</t>
-  </si>
-  <si>
-    <t>Music &gt; Musical instrument &gt; Bell &gt; Chime</t>
+    <t>Music &gt; Musical instrument &gt; Bell &gt; Chime  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/0f8s22</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Bell &gt; Chime &gt; Wind chime</t>
+    <t>Music &gt; Musical instrument &gt; Bell &gt; Chime &gt; Wind chime  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/026fgl</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Bell &gt; Church bell</t>
+    <t>Music &gt; Musical instrument &gt; Bell &gt; Church bell  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/03w41f</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Bell &gt; Jingle bell</t>
+    <t>Music &gt; Musical instrument &gt; Bell &gt; Jingle bell  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/027m70_</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Bell &gt; Tuning fork</t>
-  </si>
-  <si>
-    <t>/m/07n_g</t>
-  </si>
-  <si>
     <t>Music &gt; Musical instrument &gt; Bowed string instrument</t>
   </si>
   <si>
@@ -1828,18 +934,6 @@
     <t>/m/01kcd</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Brass instrument &gt; Bugle</t>
-  </si>
-  <si>
-    <t>/m/0y64j</t>
-  </si>
-  <si>
-    <t>Music &gt; Musical instrument &gt; Brass instrument &gt; Cornet</t>
-  </si>
-  <si>
-    <t>/m/020w2</t>
-  </si>
-  <si>
     <t>Music &gt; Musical instrument &gt; Brass instrument &gt; French horn</t>
   </si>
   <si>
@@ -1900,12 +994,6 @@
     <t>/m/03xq_f</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Keyboard (musical) &gt; Organ &gt; Hammond organ</t>
-  </si>
-  <si>
-    <t>/m/03gvt</t>
-  </si>
-  <si>
     <t>Music &gt; Musical instrument &gt; Keyboard (musical) &gt; Piano</t>
   </si>
   <si>
@@ -1918,12 +1006,6 @@
     <t>/m/01s0ps</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Keyboard (musical) &gt; Piano &gt; Electric piano &gt; Clavinet</t>
-  </si>
-  <si>
-    <t>/m/025cbm</t>
-  </si>
-  <si>
     <t>Music &gt; Musical instrument &gt; Keyboard (musical) &gt; Piano &gt; Electric piano &gt; Rhodes piano</t>
   </si>
   <si>
@@ -1936,24 +1018,12 @@
     <t>/m/0l14qv</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Keyboard (musical) &gt; Synthesizer &gt; Mellotron</t>
-  </si>
-  <si>
-    <t>/m/0gkd1</t>
-  </si>
-  <si>
     <t>Music &gt; Musical instrument &gt; Keyboard (musical) &gt; Synthesizer &gt; Sampler</t>
   </si>
   <si>
     <t>/m/01v1d8</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Musical ensemble</t>
-  </si>
-  <si>
-    <t>/m/05229</t>
-  </si>
-  <si>
     <t>Music &gt; Musical instrument &gt; Orchestra</t>
   </si>
   <si>
@@ -1966,12 +1036,6 @@
     <t>/m/0l14md</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Percussion &gt; Cymbal</t>
-  </si>
-  <si>
-    <t>/m/01qbl</t>
-  </si>
-  <si>
     <t>Music &gt; Musical instrument &gt; Percussion &gt; Cymbal &gt; Crash cymbal</t>
   </si>
   <si>
@@ -2008,12 +1072,6 @@
     <t>/m/02k_mr</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Percussion &gt; Drum &gt; Snare drum &gt; Rimshot</t>
-  </si>
-  <si>
-    <t>/m/03t3fj</t>
-  </si>
-  <si>
     <t>Music &gt; Musical instrument &gt; Percussion &gt; Drum &gt; Tabla</t>
   </si>
   <si>
@@ -2062,12 +1120,6 @@
     <t>/m/0dwsp</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Percussion &gt; Mallet percussion &gt; Steelpan</t>
-  </si>
-  <si>
-    <t>/m/0l156b</t>
-  </si>
-  <si>
     <t>Music &gt; Musical instrument &gt; Percussion &gt; Mallet percussion &gt; Vibraphone</t>
   </si>
   <si>
@@ -2098,24 +1150,6 @@
     <t>/m/016622</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Percussion &gt; Wood block</t>
-  </si>
-  <si>
-    <t>/m/01sm1g</t>
-  </si>
-  <si>
-    <t>Music &gt; Musical instrument &gt; Plucked string instrument</t>
-  </si>
-  <si>
-    <t>/m/0fx80y</t>
-  </si>
-  <si>
-    <t>Music &gt; Musical instrument &gt; Plucked string instrument &gt; Banjo</t>
-  </si>
-  <si>
-    <t>/m/018j2</t>
-  </si>
-  <si>
     <t>Music &gt; Musical instrument &gt; Plucked string instrument &gt; Guitar</t>
   </si>
   <si>
@@ -2152,18 +1186,6 @@
     <t>/m/07s0s5r</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Plucked string instrument &gt; Guitar &gt; Tapping (guitar technique)</t>
-  </si>
-  <si>
-    <t>/m/01glhc</t>
-  </si>
-  <si>
-    <t>Music &gt; Musical instrument &gt; Plucked string instrument &gt; Mandolin</t>
-  </si>
-  <si>
-    <t>/m/04rzd</t>
-  </si>
-  <si>
     <t>Music &gt; Musical instrument &gt; Plucked string instrument &gt; Sitar</t>
   </si>
   <si>
@@ -2176,24 +1198,12 @@
     <t>/m/07xzm</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Plucked string instrument &gt; Zither</t>
-  </si>
-  <si>
-    <t>/m/01bns_</t>
-  </si>
-  <si>
     <t>Music &gt; Musical instrument &gt; Scratching (performance technique)</t>
   </si>
   <si>
     <t>/m/01hgjl</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Shofar</t>
-  </si>
-  <si>
-    <t>/m/0l14l2</t>
-  </si>
-  <si>
     <t>Music &gt; Musical instrument &gt; Singing bowl</t>
   </si>
   <si>
@@ -2266,18 +1276,12 @@
     <t>/m/02_41</t>
   </si>
   <si>
-    <t>Natural sounds &gt; Fire &gt; Crackle</t>
+    <t>Natural sounds &gt; Fire &gt; Crackle  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07pzfmf</t>
   </si>
   <si>
-    <t>Natural sounds &gt; Fire &gt; Wildfire</t>
-  </si>
-  <si>
-    <t>/m/0fjy1</t>
-  </si>
-  <si>
     <t>Natural sounds &gt; Thunderstorm</t>
   </si>
   <si>
@@ -2332,12 +1336,6 @@
     <t>/m/07r10fb</t>
   </si>
   <si>
-    <t>Natural sounds &gt; Water &gt; Steam</t>
-  </si>
-  <si>
-    <t>/m/06wzb</t>
-  </si>
-  <si>
     <t>Natural sounds &gt; Water &gt; Stream</t>
   </si>
   <si>
@@ -2368,18 +1366,6 @@
     <t>/m/09t49</t>
   </si>
   <si>
-    <t>Natural sounds &gt; Wind &gt; Wind noise (microphone)</t>
-  </si>
-  <si>
-    <t>/t/dd00092</t>
-  </si>
-  <si>
-    <t>Sounds of things</t>
-  </si>
-  <si>
-    <t>/t/dd00041</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Alarm</t>
   </si>
   <si>
@@ -2404,42 +1390,18 @@
     <t>/m/0c3f7m</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Alarm &gt; Foghorn</t>
-  </si>
-  <si>
-    <t>/m/04fq5q</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Alarm &gt; Siren</t>
   </si>
   <si>
     <t>/m/03kmc9</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Alarm &gt; Siren &gt; Civil defense siren</t>
-  </si>
-  <si>
-    <t>/m/0dgbq</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Alarm &gt; Smoke detector, smoke alarm</t>
-  </si>
-  <si>
-    <t>/m/01y3hg</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Alarm &gt; Telephone</t>
   </si>
   <si>
     <t>/m/07cx4</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Alarm &gt; Telephone &gt; Busy signal</t>
-  </si>
-  <si>
-    <t>/m/01z47d</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Alarm &gt; Telephone &gt; Cellphone buzz, vibrating alert</t>
   </si>
   <si>
@@ -2470,12 +1432,6 @@
     <t>/m/02c8p</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Alarm &gt; Whistle</t>
-  </si>
-  <si>
-    <t>/m/0l156k</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Alarm &gt; Whistle &gt; Steam whistle</t>
   </si>
   <si>
@@ -2536,19 +1492,19 @@
     <t>/m/02dgv</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Door &gt; Doorbell</t>
+    <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Door &gt; Doorbell  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/03wwcy</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Door &gt; Doorbell &gt; Ding-dong</t>
+    <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Door &gt; Doorbell &gt; Ding-dong  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07r67yg</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Door &gt; Knock</t>
+    <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Door &gt; Knock  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07r4wb8</t>
@@ -2566,13 +1522,13 @@
     <t>/m/02y_763</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Door &gt; Squeak</t>
+    <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Door &gt; Squeak  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07q6cd_</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Door &gt; Tap</t>
+    <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Door &gt; Tap  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07qcpgn</t>
@@ -2602,12 +1558,6 @@
     <t>/m/03wvsk</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Kettle whistle</t>
-  </si>
-  <si>
-    <t>/g/11b630rrvh</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Keys jangling</t>
   </si>
   <si>
@@ -2656,12 +1606,6 @@
     <t>/m/012xff</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Toothbrush &gt; Electric toothbrush</t>
-  </si>
-  <si>
-    <t>/m/04fgwm</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Typing</t>
   </si>
   <si>
@@ -2722,24 +1666,12 @@
     <t>/m/07q2z82</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Engine &gt; Engine knocking</t>
-  </si>
-  <si>
-    <t>/m/01h82_</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Engine &gt; Engine starting</t>
   </si>
   <si>
     <t>/t/dd00130</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Engine &gt; Heavy engine (low frequency)</t>
-  </si>
-  <si>
-    <t>/t/dd00067</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Engine &gt; Idling</t>
   </si>
   <si>
@@ -2758,12 +1690,6 @@
     <t>/m/01j4z9</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Engine &gt; Light engine (high frequency) &gt; Dental drill, dentist's drill</t>
-  </si>
-  <si>
-    <t>/m/08j51y</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Engine &gt; Light engine (high frequency) &gt; Lawn mower</t>
   </si>
   <si>
@@ -2788,24 +1714,12 @@
     <t>/m/07qqyl4</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Explosion &gt; Boom &gt; Sonic boom</t>
-  </si>
-  <si>
-    <t>/m/0193bn</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Explosion &gt; Burst, pop</t>
   </si>
   <si>
     <t>/m/07qsvvw</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Explosion &gt; Eruption</t>
-  </si>
-  <si>
-    <t>/m/07pxg6y</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Explosion &gt; Fireworks</t>
   </si>
   <si>
@@ -2830,18 +1744,6 @@
     <t>/m/0_1c</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Explosion &gt; Gunshot, gunfire &gt; Cap gun</t>
-  </si>
-  <si>
-    <t>/m/073cg4</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Explosion &gt; Gunshot, gunfire &gt; Fusillade</t>
-  </si>
-  <si>
-    <t>/m/02z32qm</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Explosion &gt; Gunshot, gunfire &gt; Machine gun</t>
   </si>
   <si>
@@ -2890,30 +1792,12 @@
     <t>/m/07p7b8y</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Liquid &gt; Pour</t>
-  </si>
-  <si>
-    <t>/m/07prgkl</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Liquid &gt; Pour &gt; Gush</t>
-  </si>
-  <si>
-    <t>/t/dd00088</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Liquid &gt; Pour &gt; Trickle, dribble</t>
   </si>
   <si>
     <t>/m/07pqc89</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Liquid &gt; Pump (liquid)</t>
-  </si>
-  <si>
-    <t>/m/07ptzwd</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Liquid &gt; Splash, splatter</t>
   </si>
   <si>
@@ -2926,24 +1810,6 @@
     <t>/m/07p6mqd</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Liquid &gt; Spray</t>
-  </si>
-  <si>
-    <t>/m/07qlf79</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Liquid &gt; Squish</t>
-  </si>
-  <si>
-    <t>/m/07qlwh6</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Liquid &gt; Stir</t>
-  </si>
-  <si>
-    <t>/m/07ptfmf</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Mechanisms</t>
   </si>
   <si>
@@ -2962,12 +1828,6 @@
     <t>/m/0dv5r</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Mechanisms &gt; Camera &gt; Single-lens reflex camera</t>
-  </si>
-  <si>
-    <t>/m/07bjf</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Mechanisms &gt; Cash register</t>
   </si>
   <si>
@@ -2980,7 +1840,7 @@
     <t>/m/01x3z</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Mechanisms &gt; Clock &gt; Tick</t>
+    <t>Sounds of things &gt; Mechanisms &gt; Clock &gt; Tick  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07qjznt</t>
@@ -3010,12 +1870,6 @@
     <t>/m/01m4t</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Mechanisms &gt; Pulleys</t>
-  </si>
-  <si>
-    <t>/m/05zc1</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Mechanisms &gt; Ratchet, pawl</t>
   </si>
   <si>
@@ -3028,102 +1882,54 @@
     <t>/m/0llzx</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Miscellaneous sources</t>
-  </si>
-  <si>
-    <t>/t/dd00089</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Miscellaneous sources &gt; Arrow</t>
   </si>
   <si>
     <t>/m/0dl83</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Miscellaneous sources &gt; Arrow &gt; Thump, thud</t>
+    <t>Sounds of things &gt; Miscellaneous sources &gt; Arrow &gt; Thump, thud  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07qnq_y</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Miscellaneous sources &gt; Arrow &gt; Thump, thud &gt; Clunk</t>
+    <t>Sounds of things &gt; Miscellaneous sources &gt; Arrow &gt; Thump, thud &gt; Clunk  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/t/dd00108</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Miscellaneous sources &gt; Arrow &gt; Thump, thud &gt; Thunk</t>
+    <t>Sounds of things &gt; Miscellaneous sources &gt; Arrow &gt; Thump, thud &gt; Thunk  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07rrh0c</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Miscellaneous sources &gt; Arrow &gt; Whoosh, swoosh, swish</t>
+    <t>Sounds of things &gt; Miscellaneous sources &gt; Arrow &gt; Whoosh, swoosh, swish  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07rqsjt</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Miscellaneous sources &gt; Arrow &gt; Wobble</t>
-  </si>
-  <si>
-    <t>/m/07pk7mg</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Miscellaneous sources &gt; Duck call (hunting tool)</t>
-  </si>
-  <si>
-    <t>/m/04179zz</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Miscellaneous sources &gt; Sonar</t>
   </si>
   <si>
     <t>/m/0790c</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Miscellaneous sources &gt; Sound equipment</t>
-  </si>
-  <si>
-    <t>/t/dd00091</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Miscellaneous sources &gt; Sound equipment &gt; Effects unit</t>
   </si>
   <si>
     <t>/m/02rr_</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Miscellaneous sources &gt; Sound equipment &gt; Effects unit &gt; Chorus effect</t>
-  </si>
-  <si>
-    <t>/m/07m2kt</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Miscellaneous sources &gt; Sound equipment &gt; Electronic tuner</t>
-  </si>
-  <si>
-    <t>/m/0b_fwt</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Miscellaneous sources &gt; Sound equipment &gt; Guitar amplifier</t>
   </si>
   <si>
     <t>/m/01vfsf</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Miscellaneous sources &gt; Sound equipment &gt; Microphone</t>
-  </si>
-  <si>
-    <t>/m/0hg7b</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Specific impact sounds</t>
-  </si>
-  <si>
-    <t>/t/dd00133</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Specific impact sounds &gt; Basketball bounce</t>
   </si>
   <si>
@@ -3154,12 +1960,6 @@
     <t>/m/03p19w</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Tools &gt; Power tool</t>
-  </si>
-  <si>
-    <t>/m/0_ksk</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Tools &gt; Power tool &gt; Drill</t>
   </si>
   <si>
@@ -3196,18 +1996,12 @@
     <t>/m/014yck</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Vehicle &gt; Aircraft &gt; Aircraft engine &gt; Jet engine</t>
+    <t>Sounds of things &gt; Vehicle &gt; Aircraft &gt; Aircraft engine &gt; Jet engine  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/04229</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Vehicle &gt; Aircraft &gt; Aircraft engine &gt; Propeller, airscrew</t>
-  </si>
-  <si>
-    <t>/m/02l6bg</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Vehicle &gt; Aircraft &gt; Fixed-wing aircraft, airplane</t>
   </si>
   <si>
@@ -3226,24 +2020,6 @@
     <t>/m/019jd</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Vehicle &gt; Boat, Water vehicle &gt; Motorboat, speedboat</t>
-  </si>
-  <si>
-    <t>/m/02rlv9</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Vehicle &gt; Boat, Water vehicle &gt; Rowboat, canoe, kayak</t>
-  </si>
-  <si>
-    <t>/m/056ks2</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Vehicle &gt; Boat, Water vehicle &gt; Sailboat, sailing ship</t>
-  </si>
-  <si>
-    <t>/m/0hsrw</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Vehicle &gt; Boat, Water vehicle &gt; Ship</t>
   </si>
   <si>
@@ -3268,7 +2044,7 @@
     <t>/m/0k4j</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Car &gt; Car alarm</t>
+    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Car &gt; Car alarm  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/02mfyn</t>
@@ -3280,12 +2056,6 @@
     <t>/t/dd00134</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Car &gt; Power windows, electric windows</t>
-  </si>
-  <si>
-    <t>/m/04gxbd</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Car &gt; Race car, auto racing</t>
   </si>
   <si>
@@ -3298,43 +2068,19 @@
     <t>/m/07rknqz</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Car &gt; Tire squeal</t>
-  </si>
-  <si>
-    <t>/m/0h9mv</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Car &gt; Vehicle horn, car horn, honking</t>
+    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Car &gt; Vehicle horn, car horn, honking  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/0912c9</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Car &gt; Vehicle horn, car horn, honking &gt; Toot</t>
-  </si>
-  <si>
-    <t>/m/07qv_d5</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Emergency vehicle</t>
-  </si>
-  <si>
-    <t>/m/03j1ly</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Emergency vehicle &gt; Ambulance (siren)</t>
+    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Emergency vehicle &gt; Ambulance (siren)  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/012n7d</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Emergency vehicle &gt; Fire engine, fire truck (siren)</t>
-  </si>
-  <si>
-    <t>/m/012ndj</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Emergency vehicle &gt; Police car (siren)</t>
+    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Emergency vehicle &gt; Police car (siren)  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/04qvtq</t>
@@ -3358,36 +2104,6 @@
     <t>/m/07r04</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Truck &gt; Air brake</t>
-  </si>
-  <si>
-    <t>/m/0gvgw0</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Truck &gt; Air horn, truck horn</t>
-  </si>
-  <si>
-    <t>/m/05x_td</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Truck &gt; Ice cream truck, ice cream van</t>
-  </si>
-  <si>
-    <t>/m/03cl9h</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Truck &gt; Reversing beeps</t>
-  </si>
-  <si>
-    <t>/m/02rhddq</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Vehicle &gt; Non-motorized land vehicle</t>
-  </si>
-  <si>
-    <t>/t/dd00061</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Vehicle &gt; Non-motorized land vehicle &gt; Bicycle</t>
   </si>
   <si>
@@ -3400,18 +2116,6 @@
     <t>/m/06_fw</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Vehicle &gt; Rail transport</t>
-  </si>
-  <si>
-    <t>/m/06d_3</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Vehicle &gt; Rail transport &gt; Railroad car, train wagon</t>
-  </si>
-  <si>
-    <t>/m/01g50p</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Vehicle &gt; Rail transport &gt; Subway, metro, underground</t>
   </si>
   <si>
@@ -3436,12 +2140,6 @@
     <t>/m/04zmvq</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Vehicle &gt; Rail transport &gt; Train wheels squealing</t>
-  </si>
-  <si>
-    <t>/t/dd00048</t>
-  </si>
-  <si>
     <t>Sounds of things &gt; Wood</t>
   </si>
   <si>
@@ -3454,13 +2152,13 @@
     <t>/m/07pczhz</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Wood &gt; Crack</t>
+    <t>Sounds of things &gt; Wood &gt; Crack  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07qs1cx</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Wood &gt; Snap</t>
+    <t>Sounds of things &gt; Wood &gt; Snap  // MULTIPLE PARENTS</t>
   </si>
   <si>
     <t>/m/07pc8l3</t>
@@ -3472,18 +2170,6 @@
     <t>/m/07pl1bw</t>
   </si>
   <si>
-    <t>Source-ambiguous sounds</t>
-  </si>
-  <si>
-    <t>/t/dd00098</t>
-  </si>
-  <si>
-    <t>Source-ambiguous sounds &gt; Deformable shell</t>
-  </si>
-  <si>
-    <t>/t/dd00110</t>
-  </si>
-  <si>
     <t>Source-ambiguous sounds &gt; Deformable shell &gt; Crumpling, crinkling</t>
   </si>
   <si>
@@ -3502,12 +2188,6 @@
     <t>/m/07qcx4z</t>
   </si>
   <si>
-    <t>Source-ambiguous sounds &gt; Generic impact sounds</t>
-  </si>
-  <si>
-    <t>/t/dd00099</t>
-  </si>
-  <si>
     <t>Source-ambiguous sounds &gt; Generic impact sounds &gt; Bang</t>
   </si>
   <si>
@@ -3526,12 +2206,6 @@
     <t>/m/07pc8lb</t>
   </si>
   <si>
-    <t>Source-ambiguous sounds &gt; Generic impact sounds &gt; Flap</t>
-  </si>
-  <si>
-    <t>/m/07pyf11</t>
-  </si>
-  <si>
     <t>Source-ambiguous sounds &gt; Generic impact sounds &gt; Slap, smack</t>
   </si>
   <si>
@@ -3556,30 +2230,12 @@
     <t>/m/07rbp7_</t>
   </si>
   <si>
-    <t>Source-ambiguous sounds &gt; Onomatopoeia</t>
-  </si>
-  <si>
-    <t>/m/05n1m</t>
-  </si>
-  <si>
-    <t>Source-ambiguous sounds &gt; Onomatopoeia &gt; Blare</t>
-  </si>
-  <si>
-    <t>/m/07r_r9m</t>
-  </si>
-  <si>
     <t>Source-ambiguous sounds &gt; Onomatopoeia &gt; Boing</t>
   </si>
   <si>
     <t>/t/dd00121</t>
   </si>
   <si>
-    <t>Source-ambiguous sounds &gt; Onomatopoeia &gt; Brief tone</t>
-  </si>
-  <si>
-    <t>/t/dd000138</t>
-  </si>
-  <si>
     <t>Source-ambiguous sounds &gt; Onomatopoeia &gt; Brief tone &gt; Beep, bleep</t>
   </si>
   <si>
@@ -3634,12 +2290,6 @@
     <t>/m/07qc9xj</t>
   </si>
   <si>
-    <t>Source-ambiguous sounds &gt; Onomatopoeia &gt; Clicking &gt; Clickety-clack</t>
-  </si>
-  <si>
-    <t>/m/07rwm0c</t>
-  </si>
-  <si>
     <t>Source-ambiguous sounds &gt; Onomatopoeia &gt; Creak</t>
   </si>
   <si>
@@ -3706,76 +2356,22 @@
     <t>/m/07s34ls</t>
   </si>
   <si>
-    <t>Source-ambiguous sounds &gt; Onomatopoeia &gt; Zing</t>
-  </si>
-  <si>
-    <t>/m/07p78v5</t>
-  </si>
-  <si>
-    <t>Source-ambiguous sounds &gt; Other sourceless</t>
-  </si>
-  <si>
-    <t>/t/dd00122</t>
-  </si>
-  <si>
-    <t>Source-ambiguous sounds &gt; Other sourceless &gt; Bass (frequency range)</t>
-  </si>
-  <si>
-    <t>/m/017gp</t>
-  </si>
-  <si>
-    <t>Source-ambiguous sounds &gt; Other sourceless &gt; Infrasound</t>
-  </si>
-  <si>
-    <t>/m/01fhw5</t>
-  </si>
-  <si>
     <t>Source-ambiguous sounds &gt; Other sourceless &gt; Pulse</t>
   </si>
   <si>
     <t>/m/07pt_g0</t>
   </si>
   <si>
-    <t>Source-ambiguous sounds &gt; Other sourceless &gt; Ringing (of resonator)</t>
-  </si>
-  <si>
-    <t>/m/05szwhw</t>
-  </si>
-  <si>
-    <t>Source-ambiguous sounds &gt; Other sourceless &gt; Sine wave</t>
-  </si>
-  <si>
-    <t>/m/01v_m0</t>
-  </si>
-  <si>
     <t>Source-ambiguous sounds &gt; Other sourceless &gt; Sine wave &gt; Chirp tone</t>
   </si>
   <si>
     <t>/m/0hdsk</t>
   </si>
   <si>
-    <t>Source-ambiguous sounds &gt; Other sourceless &gt; Sine wave &gt; Harmonic</t>
-  </si>
-  <si>
-    <t>/m/0b9m1</t>
-  </si>
-  <si>
     <t>Source-ambiguous sounds &gt; Other sourceless &gt; Sound effect</t>
   </si>
   <si>
     <t>/m/0c1dj</t>
-  </si>
-  <si>
-    <t>Source-ambiguous sounds &gt; Silence</t>
-  </si>
-  <si>
-    <t>/m/028v0c</t>
-  </si>
-  <si>
-    <t>Source-ambiguous sounds &gt; Surface contact</t>
-  </si>
-  <si>
-    <t>/t/dd00109</t>
   </si>
   <si>
     <t>Source-ambiguous sounds &gt; Surface contact &gt; Grind</t>
@@ -4137,7 +2733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B632"/>
+  <dimension ref="A1:B398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7327,1878 +5923,6 @@
         <v>795</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
-      <c r="A399" t="s">
-        <v>796</v>
-      </c>
-      <c r="B399" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
-      <c r="A400" t="s">
-        <v>798</v>
-      </c>
-      <c r="B400" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" t="s">
-        <v>800</v>
-      </c>
-      <c r="B401" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402" t="s">
-        <v>802</v>
-      </c>
-      <c r="B402" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2">
-      <c r="A403" t="s">
-        <v>804</v>
-      </c>
-      <c r="B403" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
-      <c r="A404" t="s">
-        <v>806</v>
-      </c>
-      <c r="B404" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2">
-      <c r="A405" t="s">
-        <v>808</v>
-      </c>
-      <c r="B405" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
-      <c r="A406" t="s">
-        <v>810</v>
-      </c>
-      <c r="B406" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2">
-      <c r="A407" t="s">
-        <v>812</v>
-      </c>
-      <c r="B407" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" t="s">
-        <v>814</v>
-      </c>
-      <c r="B408" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
-      <c r="A409" t="s">
-        <v>816</v>
-      </c>
-      <c r="B409" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="A410" t="s">
-        <v>818</v>
-      </c>
-      <c r="B410" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="A411" t="s">
-        <v>820</v>
-      </c>
-      <c r="B411" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
-      <c r="A412" t="s">
-        <v>822</v>
-      </c>
-      <c r="B412" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="A413" t="s">
-        <v>824</v>
-      </c>
-      <c r="B413" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
-      <c r="A414" t="s">
-        <v>826</v>
-      </c>
-      <c r="B414" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2">
-      <c r="A415" t="s">
-        <v>828</v>
-      </c>
-      <c r="B415" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="A416" t="s">
-        <v>830</v>
-      </c>
-      <c r="B416" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2">
-      <c r="A417" t="s">
-        <v>832</v>
-      </c>
-      <c r="B417" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
-      <c r="A418" t="s">
-        <v>834</v>
-      </c>
-      <c r="B418" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2">
-      <c r="A419" t="s">
-        <v>836</v>
-      </c>
-      <c r="B419" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2">
-      <c r="A420" t="s">
-        <v>838</v>
-      </c>
-      <c r="B420" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2">
-      <c r="A421" t="s">
-        <v>840</v>
-      </c>
-      <c r="B421" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2">
-      <c r="A422" t="s">
-        <v>842</v>
-      </c>
-      <c r="B422" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
-      <c r="A423" t="s">
-        <v>844</v>
-      </c>
-      <c r="B423" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2">
-      <c r="A424" t="s">
-        <v>846</v>
-      </c>
-      <c r="B424" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
-      <c r="A425" t="s">
-        <v>848</v>
-      </c>
-      <c r="B425" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2">
-      <c r="A426" t="s">
-        <v>850</v>
-      </c>
-      <c r="B426" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2">
-      <c r="A427" t="s">
-        <v>852</v>
-      </c>
-      <c r="B427" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2">
-      <c r="A428" t="s">
-        <v>854</v>
-      </c>
-      <c r="B428" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2">
-      <c r="A429" t="s">
-        <v>856</v>
-      </c>
-      <c r="B429" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2">
-      <c r="A430" t="s">
-        <v>858</v>
-      </c>
-      <c r="B430" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2">
-      <c r="A431" t="s">
-        <v>860</v>
-      </c>
-      <c r="B431" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2">
-      <c r="A432" t="s">
-        <v>862</v>
-      </c>
-      <c r="B432" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2">
-      <c r="A433" t="s">
-        <v>864</v>
-      </c>
-      <c r="B433" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2">
-      <c r="A434" t="s">
-        <v>866</v>
-      </c>
-      <c r="B434" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2">
-      <c r="A435" t="s">
-        <v>868</v>
-      </c>
-      <c r="B435" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2">
-      <c r="A436" t="s">
-        <v>870</v>
-      </c>
-      <c r="B436" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2">
-      <c r="A437" t="s">
-        <v>872</v>
-      </c>
-      <c r="B437" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2">
-      <c r="A438" t="s">
-        <v>874</v>
-      </c>
-      <c r="B438" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2">
-      <c r="A439" t="s">
-        <v>876</v>
-      </c>
-      <c r="B439" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2">
-      <c r="A440" t="s">
-        <v>878</v>
-      </c>
-      <c r="B440" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2">
-      <c r="A441" t="s">
-        <v>880</v>
-      </c>
-      <c r="B441" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2">
-      <c r="A442" t="s">
-        <v>882</v>
-      </c>
-      <c r="B442" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2">
-      <c r="A443" t="s">
-        <v>884</v>
-      </c>
-      <c r="B443" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2">
-      <c r="A444" t="s">
-        <v>886</v>
-      </c>
-      <c r="B444" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2">
-      <c r="A445" t="s">
-        <v>888</v>
-      </c>
-      <c r="B445" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2">
-      <c r="A446" t="s">
-        <v>890</v>
-      </c>
-      <c r="B446" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2">
-      <c r="A447" t="s">
-        <v>892</v>
-      </c>
-      <c r="B447" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2">
-      <c r="A448" t="s">
-        <v>894</v>
-      </c>
-      <c r="B448" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
-      <c r="A449" t="s">
-        <v>896</v>
-      </c>
-      <c r="B449" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2">
-      <c r="A450" t="s">
-        <v>898</v>
-      </c>
-      <c r="B450" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2">
-      <c r="A451" t="s">
-        <v>900</v>
-      </c>
-      <c r="B451" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2">
-      <c r="A452" t="s">
-        <v>902</v>
-      </c>
-      <c r="B452" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2">
-      <c r="A453" t="s">
-        <v>904</v>
-      </c>
-      <c r="B453" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2">
-      <c r="A454" t="s">
-        <v>906</v>
-      </c>
-      <c r="B454" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2">
-      <c r="A455" t="s">
-        <v>908</v>
-      </c>
-      <c r="B455" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2">
-      <c r="A456" t="s">
-        <v>910</v>
-      </c>
-      <c r="B456" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2">
-      <c r="A457" t="s">
-        <v>912</v>
-      </c>
-      <c r="B457" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2">
-      <c r="A458" t="s">
-        <v>914</v>
-      </c>
-      <c r="B458" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2">
-      <c r="A459" t="s">
-        <v>916</v>
-      </c>
-      <c r="B459" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2">
-      <c r="A460" t="s">
-        <v>918</v>
-      </c>
-      <c r="B460" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
-      <c r="A461" t="s">
-        <v>920</v>
-      </c>
-      <c r="B461" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2">
-      <c r="A462" t="s">
-        <v>922</v>
-      </c>
-      <c r="B462" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
-      <c r="A463" t="s">
-        <v>924</v>
-      </c>
-      <c r="B463" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2">
-      <c r="A464" t="s">
-        <v>926</v>
-      </c>
-      <c r="B464" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2">
-      <c r="A465" t="s">
-        <v>928</v>
-      </c>
-      <c r="B465" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2">
-      <c r="A466" t="s">
-        <v>930</v>
-      </c>
-      <c r="B466" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2">
-      <c r="A467" t="s">
-        <v>932</v>
-      </c>
-      <c r="B467" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2">
-      <c r="A468" t="s">
-        <v>934</v>
-      </c>
-      <c r="B468" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2">
-      <c r="A469" t="s">
-        <v>936</v>
-      </c>
-      <c r="B469" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
-      <c r="A470" t="s">
-        <v>938</v>
-      </c>
-      <c r="B470" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2">
-      <c r="A471" t="s">
-        <v>940</v>
-      </c>
-      <c r="B471" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2">
-      <c r="A472" t="s">
-        <v>942</v>
-      </c>
-      <c r="B472" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2">
-      <c r="A473" t="s">
-        <v>944</v>
-      </c>
-      <c r="B473" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2">
-      <c r="A474" t="s">
-        <v>946</v>
-      </c>
-      <c r="B474" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2">
-      <c r="A475" t="s">
-        <v>948</v>
-      </c>
-      <c r="B475" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2">
-      <c r="A476" t="s">
-        <v>950</v>
-      </c>
-      <c r="B476" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2">
-      <c r="A477" t="s">
-        <v>952</v>
-      </c>
-      <c r="B477" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2">
-      <c r="A478" t="s">
-        <v>954</v>
-      </c>
-      <c r="B478" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2">
-      <c r="A479" t="s">
-        <v>956</v>
-      </c>
-      <c r="B479" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2">
-      <c r="A480" t="s">
-        <v>958</v>
-      </c>
-      <c r="B480" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2">
-      <c r="A481" t="s">
-        <v>960</v>
-      </c>
-      <c r="B481" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2">
-      <c r="A482" t="s">
-        <v>962</v>
-      </c>
-      <c r="B482" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2">
-      <c r="A483" t="s">
-        <v>964</v>
-      </c>
-      <c r="B483" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2">
-      <c r="A484" t="s">
-        <v>966</v>
-      </c>
-      <c r="B484" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2">
-      <c r="A485" t="s">
-        <v>968</v>
-      </c>
-      <c r="B485" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2">
-      <c r="A486" t="s">
-        <v>970</v>
-      </c>
-      <c r="B486" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2">
-      <c r="A487" t="s">
-        <v>972</v>
-      </c>
-      <c r="B487" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2">
-      <c r="A488" t="s">
-        <v>974</v>
-      </c>
-      <c r="B488" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2">
-      <c r="A489" t="s">
-        <v>976</v>
-      </c>
-      <c r="B489" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2">
-      <c r="A490" t="s">
-        <v>978</v>
-      </c>
-      <c r="B490" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2">
-      <c r="A491" t="s">
-        <v>980</v>
-      </c>
-      <c r="B491" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2">
-      <c r="A492" t="s">
-        <v>982</v>
-      </c>
-      <c r="B492" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2">
-      <c r="A493" t="s">
-        <v>984</v>
-      </c>
-      <c r="B493" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2">
-      <c r="A494" t="s">
-        <v>986</v>
-      </c>
-      <c r="B494" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2">
-      <c r="A495" t="s">
-        <v>988</v>
-      </c>
-      <c r="B495" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2">
-      <c r="A496" t="s">
-        <v>990</v>
-      </c>
-      <c r="B496" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2">
-      <c r="A497" t="s">
-        <v>992</v>
-      </c>
-      <c r="B497" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2">
-      <c r="A498" t="s">
-        <v>994</v>
-      </c>
-      <c r="B498" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2">
-      <c r="A499" t="s">
-        <v>996</v>
-      </c>
-      <c r="B499" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2">
-      <c r="A500" t="s">
-        <v>998</v>
-      </c>
-      <c r="B500" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2">
-      <c r="A501" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2">
-      <c r="A502" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B502" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2">
-      <c r="A503" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B503" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2">
-      <c r="A504" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B504" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2">
-      <c r="A505" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B505" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2">
-      <c r="A506" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B506" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2">
-      <c r="A507" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2">
-      <c r="A508" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B508" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2">
-      <c r="A509" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B509" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2">
-      <c r="A510" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2">
-      <c r="A511" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2">
-      <c r="A512" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B512" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2">
-      <c r="A513" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B513" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2">
-      <c r="A514" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2">
-      <c r="A515" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B515" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2">
-      <c r="A516" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B516" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2">
-      <c r="A517" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B517" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2">
-      <c r="A518" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B518" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2">
-      <c r="A519" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B519" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2">
-      <c r="A520" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B520" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2">
-      <c r="A521" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B521" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2">
-      <c r="A522" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B522" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2">
-      <c r="A523" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B523" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2">
-      <c r="A524" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2">
-      <c r="A525" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2">
-      <c r="A526" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B526" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2">
-      <c r="A527" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B527" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2">
-      <c r="A528" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B528" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2">
-      <c r="A529" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B529" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2">
-      <c r="A530" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B530" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2">
-      <c r="A531" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B531" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2">
-      <c r="A532" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B532" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2">
-      <c r="A533" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B533" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2">
-      <c r="A534" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B534" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2">
-      <c r="A535" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B535" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2">
-      <c r="A536" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B536" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2">
-      <c r="A537" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B537" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2">
-      <c r="A538" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B538" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2">
-      <c r="A539" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B539" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2">
-      <c r="A540" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B540" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2">
-      <c r="A541" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2">
-      <c r="A542" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B542" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2">
-      <c r="A543" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B543" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2">
-      <c r="A544" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B544" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2">
-      <c r="A545" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B545" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2">
-      <c r="A546" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B546" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2">
-      <c r="A547" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B547" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2">
-      <c r="A548" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B548" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2">
-      <c r="A549" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B549" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2">
-      <c r="A550" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B550" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2">
-      <c r="A551" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B551" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2">
-      <c r="A552" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2">
-      <c r="A553" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B553" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2">
-      <c r="A554" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B554" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2">
-      <c r="A555" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B555" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2">
-      <c r="A556" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B556" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2">
-      <c r="A557" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2">
-      <c r="A558" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B558" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2">
-      <c r="A559" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B559" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2">
-      <c r="A560" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B560" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2">
-      <c r="A561" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B561" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2">
-      <c r="A562" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B562" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2">
-      <c r="A563" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B563" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2">
-      <c r="A564" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B564" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2">
-      <c r="A565" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B565" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2">
-      <c r="A566" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B566" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2">
-      <c r="A567" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B567" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2">
-      <c r="A568" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B568" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2">
-      <c r="A569" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B569" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2">
-      <c r="A570" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2">
-      <c r="A571" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B571" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2">
-      <c r="A572" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B572" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2">
-      <c r="A573" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B573" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2">
-      <c r="A574" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B574" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2">
-      <c r="A575" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B575" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2">
-      <c r="A576" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2">
-      <c r="A577" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B577" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2">
-      <c r="A578" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2">
-      <c r="A579" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2">
-      <c r="A580" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B580" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2">
-      <c r="A581" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2">
-      <c r="A582" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2">
-      <c r="A583" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B583" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2">
-      <c r="A584" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B584" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2">
-      <c r="A585" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B585" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2">
-      <c r="A586" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2">
-      <c r="A587" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2">
-      <c r="A588" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B588" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2">
-      <c r="A589" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B589" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2">
-      <c r="A590" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B590" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2">
-      <c r="A591" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B591" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2">
-      <c r="A592" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B592" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2">
-      <c r="A593" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B593" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2">
-      <c r="A594" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B594" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2">
-      <c r="A595" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B595" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2">
-      <c r="A596" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B596" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2">
-      <c r="A597" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B597" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2">
-      <c r="A598" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B598" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2">
-      <c r="A599" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B599" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2">
-      <c r="A600" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2">
-      <c r="A601" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B601" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2">
-      <c r="A602" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B602" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2">
-      <c r="A603" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B603" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2">
-      <c r="A604" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B604" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2">
-      <c r="A605" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B605" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2">
-      <c r="A606" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2">
-      <c r="A607" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B607" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2">
-      <c r="A608" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B608" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2">
-      <c r="A609" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B609" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2">
-      <c r="A610" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B610" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2">
-      <c r="A611" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B611" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2">
-      <c r="A612" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B612" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2">
-      <c r="A613" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B613" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2">
-      <c r="A614" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B614" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2">
-      <c r="A615" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B615" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2">
-      <c r="A616" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B616" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2">
-      <c r="A617" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B617" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2">
-      <c r="A618" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B618" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2">
-      <c r="A619" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2">
-      <c r="A620" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B620" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2">
-      <c r="A621" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B621" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2">
-      <c r="A622" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B622" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2">
-      <c r="A623" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B623" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2">
-      <c r="A624" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B624" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2">
-      <c r="A625" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2">
-      <c r="A626" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B626" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2">
-      <c r="A627" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B627" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2">
-      <c r="A628" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B628" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2">
-      <c r="A629" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2">
-      <c r="A630" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2">
-      <c r="A631" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B631" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2">
-      <c r="A632" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B632" t="s">
-        <v>1263</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
